--- a/Test_Suite/view_edit.xlsx
+++ b/Test_Suite/view_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47318811-98B7-4C61-842D-5DC13CC2D0F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E624E2-FB98-442E-9475-CC6BACFB6DBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>CheckPoint</t>
   </si>
@@ -49,13 +49,16 @@
     <t>N</t>
   </si>
   <si>
-    <t>Shell_Citrix().create('standardView')</t>
-  </si>
-  <si>
-    <t>Shell_Citrix().edit('editView', 'standardView')</t>
-  </si>
-  <si>
     <t>Shell_Citrix().check('editView')</t>
+  </si>
+  <si>
+    <t>Shell_View().create('standardView')</t>
+  </si>
+  <si>
+    <t>Shell_View().edit('editView', 'standardView')</t>
+  </si>
+  <si>
+    <t>Shell_View().check('editView')</t>
   </si>
 </sst>
 </file>
@@ -382,7 +385,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,7 +416,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2"/>
     </row>
@@ -422,7 +425,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -446,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">

--- a/Test_Suite/view_edit.xlsx
+++ b/Test_Suite/view_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E624E2-FB98-442E-9475-CC6BACFB6DBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFC7977-E78A-467D-A6E9-C2251FBD813B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30336" yWindow="1536" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>CheckPoint</t>
   </si>
@@ -49,9 +49,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Shell_Citrix().check('editView')</t>
-  </si>
-  <si>
     <t>Shell_View().create('standardView')</t>
   </si>
   <si>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>Shell_View().check('editView')</t>
+  </si>
+  <si>
+    <t>EasyShellTest().resetEasyshell()</t>
   </si>
 </sst>
 </file>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,85 +412,90 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="4"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C48" s="4"/>
@@ -508,14 +513,17 @@
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="3"/>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test_Suite/view_edit.xlsx
+++ b/Test_Suite/view_edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFC7977-E78A-467D-A6E9-C2251FBD813B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A870A913-F996-48F2-AFB1-DD43D645F6F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30336" yWindow="1536" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,10 @@
     <t>Shell_View().edit('editView', 'standardView')</t>
   </si>
   <si>
-    <t>Shell_View().check('editView')</t>
-  </si>
-  <si>
     <t>EasyShellTest().resetEasyshell()</t>
+  </si>
+  <si>
+    <t>Shell_View().check_connection('editView')</t>
   </si>
 </sst>
 </file>
@@ -385,19 +385,19 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" style="1" customWidth="1"/>
-    <col min="4" max="21" width="9.109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" style="1" customWidth="1"/>
+    <col min="4" max="21" width="9.140625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,15 +411,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -428,7 +428,7 @@
       </c>
       <c r="D3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -452,15 +452,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -476,53 +476,53 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C56" s="4"/>
     </row>
   </sheetData>
